--- a/branches/master/ValueSet-BvoConditionCodeVS.xlsx
+++ b/branches/master/ValueSet-BvoConditionCodeVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T16:17:08+00:00</t>
+    <t>2022-02-25T16:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BvoConditionCodeVS.xlsx
+++ b/branches/master/ValueSet-BvoConditionCodeVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T16:33:50+00:00</t>
+    <t>2022-03-04T07:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BvoConditionCodeVS.xlsx
+++ b/branches/master/ValueSet-BvoConditionCodeVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T07:40:22+00:00</t>
+    <t>2022-03-04T08:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BvoConditionCodeVS.xlsx
+++ b/branches/master/ValueSet-BvoConditionCodeVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:50:25+00:00</t>
+    <t>2022-03-04T09:19:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BvoConditionCodeVS.xlsx
+++ b/branches/master/ValueSet-BvoConditionCodeVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:21+00:00</t>
+    <t>2022-03-11T15:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BvoConditionCodeVS.xlsx
+++ b/branches/master/ValueSet-BvoConditionCodeVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T15:39:18+00:00</t>
+    <t>2022-03-11T16:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
